--- a/logs/2024/The Chairs Are Where the People Go_ How to Live, Work, and Play in the City - Misha Glouberman.xlsx
+++ b/logs/2024/The Chairs Are Where the People Go_ How to Live, Work, and Play in the City - Misha Glouberman.xlsx
@@ -430,7 +430,7 @@
         <v>45339</v>
       </c>
       <c r="B1" t="n">
-        <v>65</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2">
@@ -438,7 +438,7 @@
         <v>45340</v>
       </c>
       <c r="B2" t="n">
-        <v>117</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3">
@@ -446,7 +446,7 @@
         <v>45341</v>
       </c>
       <c r="B3" t="n">
-        <v>148</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
